--- a/output/3Y_P3_KFSDIV.xlsx
+++ b/output/3Y_P3_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -3680,10 +3683,10 @@
         <v>183829.6618</v>
       </c>
       <c r="K16" s="1">
-        <v>113368.0588</v>
+        <v>113376.3525</v>
       </c>
       <c r="L16" s="1">
-        <v>9.582800000000001</v>
+        <v>9.583500000000001</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -3733,10 +3736,10 @@
         <v>206108.0589</v>
       </c>
       <c r="K17" s="1">
-        <v>114964.188</v>
+        <v>114972.4817</v>
       </c>
       <c r="L17" s="1">
-        <v>9.614699999999999</v>
+        <v>9.615399999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -3786,10 +3789,10 @@
         <v>234041.4924</v>
       </c>
       <c r="K18" s="1">
-        <v>112670.2588</v>
+        <v>112687.7103</v>
       </c>
       <c r="L18" s="1">
-        <v>9.557399999999999</v>
+        <v>9.5589</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -3839,10 +3842,10 @@
         <v>244443.3507</v>
       </c>
       <c r="K19" s="1">
-        <v>110107.3034</v>
+        <v>110134.9923</v>
       </c>
       <c r="L19" s="1">
-        <v>9.4802</v>
+        <v>9.4826</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -3892,10 +3895,10 @@
         <v>243506.6206</v>
       </c>
       <c r="K20" s="1">
-        <v>119743.9774</v>
+        <v>119771.6663</v>
       </c>
       <c r="L20" s="1">
-        <v>9.760199999999999</v>
+        <v>9.762499999999999</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -3945,10 +3948,10 @@
         <v>266132.4759</v>
       </c>
       <c r="K21" s="1">
-        <v>140726.021</v>
+        <v>140753.7099</v>
       </c>
       <c r="L21" s="1">
-        <v>10.2088</v>
+        <v>10.2108</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -3998,10 +4001,10 @@
         <v>256753.9435</v>
       </c>
       <c r="K22" s="1">
-        <v>149091.4982</v>
+        <v>149119.1871</v>
       </c>
       <c r="L22" s="1">
-        <v>10.3651</v>
+        <v>10.367</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -4051,10 +4054,10 @@
         <v>261665.1659</v>
       </c>
       <c r="K23" s="1">
-        <v>178554.3527</v>
+        <v>178582.0416</v>
       </c>
       <c r="L23" s="1">
-        <v>10.6787</v>
+        <v>10.6804</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -4104,10 +4107,10 @@
         <v>293057.2984</v>
       </c>
       <c r="K24" s="1">
-        <v>193585.4396</v>
+        <v>193613.1285</v>
       </c>
       <c r="L24" s="1">
-        <v>10.7898</v>
+        <v>10.7914</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -4157,10 +4160,10 @@
         <v>316151.6198</v>
       </c>
       <c r="K25" s="1">
-        <v>189641.7268</v>
+        <v>189685.1716</v>
       </c>
       <c r="L25" s="1">
-        <v>10.7505</v>
+        <v>10.753</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -4210,10 +4213,10 @@
         <v>321898.7154</v>
       </c>
       <c r="K26" s="1">
-        <v>186534.9883</v>
+        <v>186590.8502</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7108</v>
+        <v>10.714</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -4263,10 +4266,10 @@
         <v>332584.8056</v>
       </c>
       <c r="K27" s="1">
-        <v>200845.0665</v>
+        <v>200900.9284</v>
       </c>
       <c r="L27" s="1">
-        <v>10.875</v>
+        <v>10.878</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -4316,10 +4319,10 @@
         <v>369901.147</v>
       </c>
       <c r="K28" s="1">
-        <v>218007.4726</v>
+        <v>218063.3344</v>
       </c>
       <c r="L28" s="1">
-        <v>11.0282</v>
+        <v>11.031</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -4369,10 +4372,10 @@
         <v>368690.8455</v>
       </c>
       <c r="K29" s="1">
-        <v>200552.7903</v>
+        <v>200678.3705</v>
       </c>
       <c r="L29" s="1">
-        <v>10.7984</v>
+        <v>10.8052</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -4422,10 +4425,10 @@
         <v>352949.2266</v>
       </c>
       <c r="K30" s="1">
-        <v>221848.182</v>
+        <v>221973.7622</v>
       </c>
       <c r="L30" s="1">
-        <v>11.0402</v>
+        <v>11.0464</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -4475,10 +4478,10 @@
         <v>366186.4305</v>
       </c>
       <c r="K31" s="1">
-        <v>266038.831</v>
+        <v>266164.4112</v>
       </c>
       <c r="L31" s="1">
-        <v>11.23</v>
+        <v>11.2353</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -4528,10 +4531,10 @@
         <v>375852.3837</v>
       </c>
       <c r="K32" s="1">
-        <v>272651.5165</v>
+        <v>272777.0967</v>
       </c>
       <c r="L32" s="1">
-        <v>11.2564</v>
+        <v>11.2616</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -4581,10 +4584,10 @@
         <v>409306.0331</v>
       </c>
       <c r="K33" s="1">
-        <v>283000.4554</v>
+        <v>283126.0356</v>
       </c>
       <c r="L33" s="1">
-        <v>11.2952</v>
+        <v>11.3002</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -4634,10 +4637,10 @@
         <v>430502.4915</v>
       </c>
       <c r="K34" s="1">
-        <v>280394.907</v>
+        <v>280530.9075</v>
       </c>
       <c r="L34" s="1">
-        <v>11.282</v>
+        <v>11.2874</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -4687,10 +4690,10 @@
         <v>453543.0138</v>
       </c>
       <c r="K35" s="1">
-        <v>279193.6451</v>
+        <v>279334.4492</v>
       </c>
       <c r="L35" s="1">
-        <v>11.2743</v>
+        <v>11.28</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -4740,10 +4743,10 @@
         <v>492972.0188</v>
       </c>
       <c r="K36" s="1">
-        <v>276140.9191</v>
+        <v>276293.9269</v>
       </c>
       <c r="L36" s="1">
-        <v>11.2508</v>
+        <v>11.257</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -4793,10 +4796,10 @@
         <v>520601.9717</v>
       </c>
       <c r="K37" s="1">
-        <v>267822.3394</v>
+        <v>268008.5508</v>
       </c>
       <c r="L37" s="1">
-        <v>11.1702</v>
+        <v>11.1779</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -4846,10 +4849,10 @@
         <v>495630.1138</v>
       </c>
       <c r="K38" s="1">
-        <v>260161.7829</v>
+        <v>260378.598</v>
       </c>
       <c r="L38" s="1">
-        <v>11.0807</v>
+        <v>11.0899</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -5720,10 +5723,10 @@
         <v>184850.2128</v>
       </c>
       <c r="K16" s="1">
-        <v>117462.5838</v>
+        <v>117469.6687</v>
       </c>
       <c r="L16" s="1">
-        <v>9.610200000000001</v>
+        <v>9.610799999999999</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -5773,10 +5776,10 @@
         <v>207566.2525</v>
       </c>
       <c r="K17" s="1">
-        <v>119504.8304</v>
+        <v>119511.9153</v>
       </c>
       <c r="L17" s="1">
-        <v>9.6493</v>
+        <v>9.649800000000001</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -5826,10 +5829,10 @@
         <v>236174.0446</v>
       </c>
       <c r="K18" s="1">
-        <v>117549.6567</v>
+        <v>117564.5471</v>
       </c>
       <c r="L18" s="1">
-        <v>9.6027</v>
+        <v>9.603899999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -5879,10 +5882,10 @@
         <v>246592.3862</v>
       </c>
       <c r="K19" s="1">
-        <v>115336.9205</v>
+        <v>115360.6493</v>
       </c>
       <c r="L19" s="1">
-        <v>9.539199999999999</v>
+        <v>9.5412</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -5932,10 +5935,10 @@
         <v>245176.4103</v>
       </c>
       <c r="K20" s="1">
-        <v>125845.4624</v>
+        <v>125869.1912</v>
       </c>
       <c r="L20" s="1">
-        <v>9.8285</v>
+        <v>9.830299999999999</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -5985,10 +5988,10 @@
         <v>268355.8422</v>
       </c>
       <c r="K21" s="1">
-        <v>148248.2323</v>
+        <v>148271.9611</v>
       </c>
       <c r="L21" s="1">
-        <v>10.2786</v>
+        <v>10.2802</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -6038,10 +6041,10 @@
         <v>258026.5767</v>
       </c>
       <c r="K22" s="1">
-        <v>157534.1464</v>
+        <v>157557.8752</v>
       </c>
       <c r="L22" s="1">
-        <v>10.4409</v>
+        <v>10.4424</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -6091,10 +6094,10 @@
         <v>262673.1875</v>
       </c>
       <c r="K23" s="1">
-        <v>189001.0205</v>
+        <v>189024.7493</v>
       </c>
       <c r="L23" s="1">
-        <v>10.7487</v>
+        <v>10.75</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -6144,10 +6147,10 @@
         <v>295204.4394</v>
       </c>
       <c r="K24" s="1">
-        <v>205398.3698</v>
+        <v>205422.0986</v>
       </c>
       <c r="L24" s="1">
-        <v>10.8587</v>
+        <v>10.86</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -6197,10 +6200,10 @@
         <v>319044.7973</v>
       </c>
       <c r="K25" s="1">
-        <v>201859.8161</v>
+        <v>201897.6822</v>
       </c>
       <c r="L25" s="1">
-        <v>10.8263</v>
+        <v>10.8284</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -6250,10 +6253,10 @@
         <v>324538.1442</v>
       </c>
       <c r="K26" s="1">
-        <v>199224.4452</v>
+        <v>199272.8444</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7953</v>
+        <v>10.7979</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -6303,10 +6306,10 @@
         <v>335243.3106</v>
       </c>
       <c r="K27" s="1">
-        <v>215065.9886</v>
+        <v>215114.3878</v>
       </c>
       <c r="L27" s="1">
-        <v>10.9614</v>
+        <v>10.9638</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -6356,10 +6359,10 @@
         <v>374334.58</v>
       </c>
       <c r="K28" s="1">
-        <v>234005.8585</v>
+        <v>234054.2576</v>
       </c>
       <c r="L28" s="1">
-        <v>11.1142</v>
+        <v>11.1165</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -6409,10 +6412,10 @@
         <v>372364.3155</v>
       </c>
       <c r="K29" s="1">
-        <v>216152.1429</v>
+        <v>216271.8542</v>
       </c>
       <c r="L29" s="1">
-        <v>10.8995</v>
+        <v>10.9055</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -6462,10 +6465,10 @@
         <v>354781.8088</v>
       </c>
       <c r="K30" s="1">
-        <v>239657.8479</v>
+        <v>239777.5592</v>
       </c>
       <c r="L30" s="1">
-        <v>11.1408</v>
+        <v>11.1464</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -6515,10 +6518,10 @@
         <v>368253.4542</v>
       </c>
       <c r="K31" s="1">
-        <v>287761.484</v>
+        <v>287881.1953</v>
       </c>
       <c r="L31" s="1">
-        <v>11.3178</v>
+        <v>11.3225</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -6568,10 +6571,10 @@
         <v>377890.787</v>
       </c>
       <c r="K32" s="1">
-        <v>295685.5568</v>
+        <v>295805.268</v>
       </c>
       <c r="L32" s="1">
-        <v>11.3451</v>
+        <v>11.3497</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -6621,10 +6624,10 @@
         <v>413158.2006</v>
       </c>
       <c r="K33" s="1">
-        <v>307678.4395</v>
+        <v>307798.1508</v>
       </c>
       <c r="L33" s="1">
-        <v>11.3836</v>
+        <v>11.388</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -6674,10 +6677,10 @@
         <v>435267.3886</v>
       </c>
       <c r="K34" s="1">
-        <v>305755.7589</v>
+        <v>305883.1595</v>
       </c>
       <c r="L34" s="1">
-        <v>11.3751</v>
+        <v>11.3798</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -6727,10 +6730,10 @@
         <v>459407.1348</v>
       </c>
       <c r="K35" s="1">
-        <v>305375.4815</v>
+        <v>305504.4027</v>
       </c>
       <c r="L35" s="1">
-        <v>11.373</v>
+        <v>11.3778</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -6780,10 +6783,10 @@
         <v>501367.6817</v>
       </c>
       <c r="K36" s="1">
-        <v>303015.3838</v>
+        <v>303153.7399</v>
       </c>
       <c r="L36" s="1">
-        <v>11.3568</v>
+        <v>11.362</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -6833,10 +6836,10 @@
         <v>530582.0022</v>
       </c>
       <c r="K37" s="1">
-        <v>294953.6453</v>
+        <v>295124.18</v>
       </c>
       <c r="L37" s="1">
-        <v>11.2874</v>
+        <v>11.2939</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -6886,10 +6889,10 @@
         <v>502369.3169</v>
       </c>
       <c r="K38" s="1">
-        <v>287617.2853</v>
+        <v>287817.1284</v>
       </c>
       <c r="L38" s="1">
-        <v>11.2111</v>
+        <v>11.2189</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -7760,10 +7763,10 @@
         <v>185905.3577</v>
       </c>
       <c r="K16" s="1">
-        <v>121729.5058</v>
+        <v>121735.2718</v>
       </c>
       <c r="L16" s="1">
-        <v>9.6373</v>
+        <v>9.6378</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -7813,10 +7816,10 @@
         <v>209078.3841</v>
       </c>
       <c r="K17" s="1">
-        <v>124254.9423</v>
+        <v>124260.7083</v>
       </c>
       <c r="L17" s="1">
-        <v>9.6836</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -7866,10 +7869,10 @@
         <v>238392.1411</v>
       </c>
       <c r="K18" s="1">
-        <v>122675.2132</v>
+        <v>122687.2858</v>
       </c>
       <c r="L18" s="1">
-        <v>9.647600000000001</v>
+        <v>9.6486</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -7919,10 +7922,10 @@
         <v>248827.8132</v>
       </c>
       <c r="K19" s="1">
-        <v>120854.1565</v>
+        <v>120873.503</v>
       </c>
       <c r="L19" s="1">
-        <v>9.597899999999999</v>
+        <v>9.599500000000001</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -7972,10 +7975,10 @@
         <v>246906.1621</v>
       </c>
       <c r="K20" s="1">
-        <v>132307.3242</v>
+        <v>132326.6708</v>
       </c>
       <c r="L20" s="1">
-        <v>9.8964</v>
+        <v>9.8979</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -8025,10 +8028,10 @@
         <v>270669.7337</v>
       </c>
       <c r="K21" s="1">
-        <v>156240.2923</v>
+        <v>156259.6389</v>
       </c>
       <c r="L21" s="1">
-        <v>10.348</v>
+        <v>10.3493</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -8078,10 +8081,10 @@
         <v>259330.5964</v>
       </c>
       <c r="K22" s="1">
-        <v>166535.599</v>
+        <v>166554.9456</v>
       </c>
       <c r="L22" s="1">
-        <v>10.5162</v>
+        <v>10.5174</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -8131,10 +8134,10 @@
         <v>263695.0949</v>
       </c>
       <c r="K23" s="1">
-        <v>200169.918</v>
+        <v>200189.2645</v>
       </c>
       <c r="L23" s="1">
-        <v>10.818</v>
+        <v>10.819</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -8184,10 +8187,10 @@
         <v>297442.8073</v>
       </c>
       <c r="K24" s="1">
-        <v>218066.4265</v>
+        <v>218085.7731</v>
       </c>
       <c r="L24" s="1">
-        <v>10.9268</v>
+        <v>10.9277</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -8237,10 +8240,10 @@
         <v>322083.5691</v>
       </c>
       <c r="K25" s="1">
-        <v>215008.6782</v>
+        <v>215040.2411</v>
       </c>
       <c r="L25" s="1">
-        <v>10.9011</v>
+        <v>10.9027</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -8290,10 +8293,10 @@
         <v>327303.7538</v>
       </c>
       <c r="K26" s="1">
-        <v>212931.2434</v>
+        <v>212971.1094</v>
       </c>
       <c r="L26" s="1">
-        <v>10.8786</v>
+        <v>10.8807</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -8343,10 +8346,10 @@
         <v>338027.6141</v>
       </c>
       <c r="K27" s="1">
-        <v>230478.5127</v>
+        <v>230518.3787</v>
       </c>
       <c r="L27" s="1">
-        <v>11.0465</v>
+        <v>11.0484</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -8396,10 +8399,10 @@
         <v>379042.3572</v>
       </c>
       <c r="K28" s="1">
-        <v>251400.5335</v>
+        <v>251440.3995</v>
       </c>
       <c r="L28" s="1">
-        <v>11.1988</v>
+        <v>11.2006</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -8449,10 +8452,10 @@
         <v>376245.6371</v>
       </c>
       <c r="K29" s="1">
-        <v>233181.9288</v>
+        <v>233294.5644</v>
       </c>
       <c r="L29" s="1">
-        <v>10.9988</v>
+        <v>11.0041</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -8502,10 +8505,10 @@
         <v>356652.0233</v>
       </c>
       <c r="K30" s="1">
-        <v>259164.5568</v>
+        <v>259277.1924</v>
       </c>
       <c r="L30" s="1">
-        <v>11.2397</v>
+        <v>11.2446</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -8555,10 +8558,10 @@
         <v>370380.0999</v>
       </c>
       <c r="K31" s="1">
-        <v>311617.1052</v>
+        <v>311729.7408</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4038</v>
+        <v>11.408</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -8608,10 +8611,10 @@
         <v>379985.6685</v>
       </c>
       <c r="K32" s="1">
-        <v>321062.2714</v>
+        <v>321174.907</v>
       </c>
       <c r="L32" s="1">
-        <v>11.4317</v>
+        <v>11.4357</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -8661,10 +8664,10 @@
         <v>417249.0662</v>
       </c>
       <c r="K33" s="1">
-        <v>334952.9046</v>
+        <v>335065.5402</v>
       </c>
       <c r="L33" s="1">
-        <v>11.4697</v>
+        <v>11.4735</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -8714,10 +8717,10 @@
         <v>440367.8403</v>
       </c>
       <c r="K34" s="1">
-        <v>333881.3612</v>
+        <v>333998.2822</v>
       </c>
       <c r="L34" s="1">
-        <v>11.4655</v>
+        <v>11.4695</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -8767,10 +8770,10 @@
         <v>465725.0713</v>
       </c>
       <c r="K35" s="1">
-        <v>334514.5257</v>
+        <v>334631.4467</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4686</v>
+        <v>11.4726</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -8820,10 +8823,10 @@
         <v>510501.3794</v>
       </c>
       <c r="K36" s="1">
-        <v>333035.7522</v>
+        <v>333158.5848</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4597</v>
+        <v>11.4639</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -8873,10 +8876,10 @@
         <v>541486.1993</v>
       </c>
       <c r="K37" s="1">
-        <v>325380.1659</v>
+        <v>325533.5559</v>
       </c>
       <c r="L37" s="1">
-        <v>11.4012</v>
+        <v>11.4066</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -8926,10 +8929,10 @@
         <v>509639.5752</v>
       </c>
       <c r="K38" s="1">
-        <v>318534.0236</v>
+        <v>318714.7636</v>
       </c>
       <c r="L38" s="1">
-        <v>11.338</v>
+        <v>11.3444</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -9800,10 +9803,10 @@
         <v>186996.342</v>
       </c>
       <c r="K16" s="1">
-        <v>126176.222</v>
+        <v>126180.5518</v>
       </c>
       <c r="L16" s="1">
-        <v>9.664199999999999</v>
+        <v>9.6645</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -9853,10 +9856,10 @@
         <v>210646.5853</v>
       </c>
       <c r="K17" s="1">
-        <v>129224.4169</v>
+        <v>129228.7467</v>
       </c>
       <c r="L17" s="1">
-        <v>9.717499999999999</v>
+        <v>9.7179</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -9906,10 +9909,10 @@
         <v>240699.4567</v>
       </c>
       <c r="K18" s="1">
-        <v>128059.6711</v>
+        <v>128068.6508</v>
       </c>
       <c r="L18" s="1">
-        <v>9.692299999999999</v>
+        <v>9.6929</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -9959,10 +9962,10 @@
         <v>251153.3522</v>
       </c>
       <c r="K19" s="1">
-        <v>126675.2477</v>
+        <v>126689.7574</v>
       </c>
       <c r="L19" s="1">
-        <v>9.6563</v>
+        <v>9.657400000000001</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -10012,10 +10015,10 @@
         <v>248698.0621</v>
       </c>
       <c r="K20" s="1">
-        <v>139151.4416</v>
+        <v>139165.9513</v>
       </c>
       <c r="L20" s="1">
-        <v>9.9641</v>
+        <v>9.9651</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -10065,10 +10068,10 @@
         <v>273078.1138</v>
       </c>
       <c r="K21" s="1">
-        <v>164732.4755</v>
+        <v>164746.9852</v>
       </c>
       <c r="L21" s="1">
-        <v>10.417</v>
+        <v>10.4179</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -10118,10 +10121,10 @@
         <v>260666.0639</v>
       </c>
       <c r="K22" s="1">
-        <v>176134.0794</v>
+        <v>176148.5891</v>
       </c>
       <c r="L22" s="1">
-        <v>10.591</v>
+        <v>10.5918</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -10171,10 +10174,10 @@
         <v>264729.7177</v>
       </c>
       <c r="K23" s="1">
-        <v>212112.9095</v>
+        <v>212127.4191</v>
       </c>
       <c r="L23" s="1">
-        <v>10.8866</v>
+        <v>10.8874</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -10224,10 +10227,10 @@
         <v>299776.8346</v>
       </c>
       <c r="K24" s="1">
-        <v>231654.1237</v>
+        <v>231668.6333</v>
       </c>
       <c r="L24" s="1">
-        <v>10.9939</v>
+        <v>10.9946</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -10277,10 +10280,10 @@
         <v>325276.6077</v>
       </c>
       <c r="K25" s="1">
-        <v>229162.3191</v>
+        <v>229186.784</v>
       </c>
       <c r="L25" s="1">
-        <v>10.9748</v>
+        <v>10.976</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -10330,10 +10333,10 @@
         <v>330202.6232</v>
       </c>
       <c r="K26" s="1">
-        <v>227740.6354</v>
+        <v>227770.7825</v>
       </c>
       <c r="L26" s="1">
-        <v>10.9607</v>
+        <v>10.9621</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -10383,10 +10386,10 @@
         <v>340944.5978</v>
       </c>
       <c r="K27" s="1">
-        <v>247187.3444</v>
+        <v>247217.4915</v>
       </c>
       <c r="L27" s="1">
-        <v>11.1301</v>
+        <v>11.1315</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -10436,10 +10439,10 @@
         <v>384044.755</v>
       </c>
       <c r="K28" s="1">
-        <v>270319.7141</v>
+        <v>270349.8613</v>
       </c>
       <c r="L28" s="1">
-        <v>11.2818</v>
+        <v>11.2831</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -10489,10 +10492,10 @@
         <v>380348.8064</v>
       </c>
       <c r="K29" s="1">
-        <v>251780.1076</v>
+        <v>251884.3064</v>
       </c>
       <c r="L29" s="1">
-        <v>11.0963</v>
+        <v>11.1009</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -10542,10 +10545,10 @@
         <v>358556.8493</v>
       </c>
       <c r="K30" s="1">
-        <v>280538.97</v>
+        <v>280643.1689</v>
       </c>
       <c r="L30" s="1">
-        <v>11.3367</v>
+        <v>11.3409</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -10595,10 +10598,10 @@
         <v>372565.5806</v>
       </c>
       <c r="K31" s="1">
-        <v>337827.8004</v>
+        <v>337931.9993</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4879</v>
+        <v>11.4914</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -10648,10 +10651,10 @@
         <v>382135.8705</v>
       </c>
       <c r="K32" s="1">
-        <v>349034.7991</v>
+        <v>349138.998</v>
       </c>
       <c r="L32" s="1">
-        <v>11.516</v>
+        <v>11.5195</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -10701,10 +10704,10 @@
         <v>421597.3528</v>
       </c>
       <c r="K33" s="1">
-        <v>365114.7239</v>
+        <v>365218.9228</v>
       </c>
       <c r="L33" s="1">
-        <v>11.5532</v>
+        <v>11.5565</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -10754,10 +10757,10 @@
         <v>445833.7504</v>
       </c>
       <c r="K34" s="1">
-        <v>365093.0727</v>
+        <v>365197.3582</v>
       </c>
       <c r="L34" s="1">
-        <v>11.5531</v>
+        <v>11.5564</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -10807,10 +10810,10 @@
         <v>472541.2858</v>
       </c>
       <c r="K35" s="1">
-        <v>366967.4132</v>
+        <v>367071.6986</v>
       </c>
       <c r="L35" s="1">
-        <v>11.5612</v>
+        <v>11.5644</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -10860,10 +10863,10 @@
         <v>520452.3675</v>
       </c>
       <c r="K36" s="1">
-        <v>366595.6888</v>
+        <v>366701.4603</v>
       </c>
       <c r="L36" s="1">
-        <v>11.5592</v>
+        <v>11.5625</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -10913,10 +10916,10 @@
         <v>553417.6921</v>
       </c>
       <c r="K37" s="1">
-        <v>359530.0057</v>
+        <v>359663.9799</v>
       </c>
       <c r="L37" s="1">
-        <v>11.5114</v>
+        <v>11.5157</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -10966,10 +10969,10 @@
         <v>517491.9011</v>
       </c>
       <c r="K38" s="1">
-        <v>353378.921</v>
+        <v>353537.4685</v>
       </c>
       <c r="L38" s="1">
-        <v>11.4611</v>
+        <v>11.4662</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>12.1327</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0807</v>
+        <v>11.0899</v>
       </c>
       <c r="E3" s="1">
-        <v>11.2111</v>
+        <v>11.2189</v>
       </c>
       <c r="F3" s="1">
-        <v>11.338</v>
+        <v>11.3444</v>
       </c>
       <c r="G3" s="1">
-        <v>11.4611</v>
+        <v>11.4662</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>98070.3299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.141</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.9035</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.7454</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4638</v>
       </c>
     </row>
   </sheetData>
